--- a/var_info/indv_panel_var_info/HILDA_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/HILDA_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9DE02-4A21-F441-B0BA-3FA085308C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2FD642-216E-1444-9CBC-63C5A006B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$F$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$Q$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="228">
   <si>
     <t>age</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1201,11 +1204,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1562,22 +1562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -1621,2514 +1619,2661 @@
         <v>165</v>
       </c>
       <c r="O1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4</v>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4</v>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
         <v>172</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4</v>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4</v>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4</v>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4</v>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>172</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
         <v>172</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>222</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
         <v>172</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
         <v>172</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
         <v>172</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
         <v>174</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36">
         <v>5</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
         <v>174</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37">
         <v>5</v>
       </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
         <v>174</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
         <v>174</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>224</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
         <v>174</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41">
         <v>5</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>210</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
         <v>174</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42">
         <v>5</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43">
         <v>5</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
         <v>174</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44">
         <v>5</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45">
         <v>5</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
         <v>174</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46">
         <v>5</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47">
         <v>5</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48">
         <v>5</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
         <v>174</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49">
         <v>5</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
         <v>174</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50">
         <v>5</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
         <v>174</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51">
         <v>5</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>173</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
         <v>174</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52">
         <v>5</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>173</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
         <v>174</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="3">
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53">
         <v>5</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>221</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>195</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>173</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54">
         <v>5</v>
       </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>222</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>196</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>173</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
         <v>174</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="3">
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55">
         <v>5</v>
       </c>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
         <v>174</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="G57" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>175</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
         <v>174</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>12</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>223</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>175</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
         <v>174</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
         <v>174</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>224</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
         <v>174</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>175</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="1" t="s">
+      <c r="G62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
         <v>174</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>225</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>175</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="G63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>12</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>211</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>175</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
         <v>174</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>175</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" t="s">
         <v>174</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>213</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>175</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="G66" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>12</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>214</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="G67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>175</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
         <v>174</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>12</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>175</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="G69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
         <v>174</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>217</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>175</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
         <v>174</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>12</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="G71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" t="s">
         <v>174</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>175</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="G72" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
         <v>174</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>175</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="1" t="s">
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
         <v>174</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>12</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>197</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>175</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="G74" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" t="s">
         <v>174</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>198</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1" t="s">
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
         <v>174</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J93" s="3"/>
+      <c r="O75">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4140,7 +4285,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4193,9 +4338,11 @@
         <v>165</v>
       </c>
       <c r="O1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4213,7 +4360,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4233,7 +4380,7 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4253,7 +4400,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4273,7 +4420,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4293,7 +4440,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4313,7 +4460,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4333,7 +4480,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4353,7 +4500,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4373,7 +4520,7 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4393,7 +4540,7 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4413,7 +4560,7 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4433,7 +4580,7 @@
       <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4453,7 +4600,7 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4473,7 +4620,7 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4493,11 +4640,11 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4513,11 +4660,11 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -4533,11 +4680,11 @@
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4553,11 +4700,11 @@
       <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4573,11 +4720,11 @@
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4593,11 +4740,11 @@
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4613,7 +4760,7 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4627,7 +4774,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4681,9 +4828,11 @@
         <v>165</v>
       </c>
       <c r="O1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4701,7 +4850,7 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4721,7 +4870,7 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4741,7 +4890,7 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4761,7 +4910,7 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4781,7 +4930,7 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4801,7 +4950,7 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4821,7 +4970,7 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4841,7 +4990,7 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4861,7 +5010,7 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4881,7 +5030,7 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4901,7 +5050,7 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4921,7 +5070,7 @@
       <c r="E13" t="s">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4941,7 +5090,7 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4961,7 +5110,7 @@
       <c r="E15" t="s">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4981,11 +5130,11 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5001,11 +5150,11 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5021,11 +5170,11 @@
       <c r="E18" t="s">
         <v>0</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -5041,11 +5190,11 @@
       <c r="E19" t="s">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5061,11 +5210,11 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5081,11 +5230,11 @@
       <c r="E21" t="s">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5101,11 +5250,11 @@
       <c r="E22" t="s">
         <v>0</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5121,11 +5270,11 @@
       <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5141,11 +5290,11 @@
       <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -5161,11 +5310,11 @@
       <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5181,11 +5330,11 @@
       <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5201,11 +5350,11 @@
       <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -5221,11 +5370,11 @@
       <c r="E28" t="s">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -5241,11 +5390,11 @@
       <c r="E29" t="s">
         <v>1</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5261,11 +5410,11 @@
       <c r="E30" t="s">
         <v>1</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -5281,11 +5430,11 @@
       <c r="E31" t="s">
         <v>1</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -5301,11 +5450,11 @@
       <c r="E32" t="s">
         <v>1</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -5321,11 +5470,11 @@
       <c r="E33" t="s">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -5341,11 +5490,11 @@
       <c r="E34" t="s">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -5361,11 +5510,11 @@
       <c r="E35" t="s">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -5381,11 +5530,11 @@
       <c r="E36" t="s">
         <v>1</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -5401,11 +5550,11 @@
       <c r="E37" t="s">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -5421,11 +5570,11 @@
       <c r="E38" t="s">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -5441,11 +5590,11 @@
       <c r="E39" t="s">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -5461,11 +5610,11 @@
       <c r="E40" t="s">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -5481,11 +5630,11 @@
       <c r="E41" t="s">
         <v>1</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -5501,11 +5650,11 @@
       <c r="E42" t="s">
         <v>1</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -5521,7 +5670,7 @@
       <c r="E43" t="s">
         <v>1</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5535,18 +5684,16 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -5590,427 +5737,429 @@
         <v>165</v>
       </c>
       <c r="O1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>95</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>95</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>95</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>95</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6024,7 +6173,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6077,9 +6226,11 @@
         <v>165</v>
       </c>
       <c r="O1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
